--- a/App/Algorithm/data2.xlsx
+++ b/App/Algorithm/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baiguang/PycharmProjects/NumofCustom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baiguang/PycharmProjects/ScheduleSystem/App/Algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34089725-371B-784B-B6C0-E7D1AF2422A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A737ED-63F7-FB4C-80B5-D879063B9D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1000" windowWidth="24540" windowHeight="12220" xr2:uid="{9FC5A03F-9F69-4A4F-B2F8-692C75937C42}"/>
+    <workbookView xWindow="1060" yWindow="980" windowWidth="24540" windowHeight="12220" xr2:uid="{9FC5A03F-9F69-4A4F-B2F8-692C75937C42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,42 +53,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,5,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,7 +65,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,7</t>
+    <t>0,1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +445,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A10:D10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -492,13 +472,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,13 +486,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -520,13 +494,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -537,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -550,11 +521,8 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -578,9 +546,6 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
       <c r="D8">
         <v>2</v>
       </c>
@@ -593,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
